--- a/data/Unicrypt/Unicrypt20180101.xlsx
+++ b/data/Unicrypt/Unicrypt20180101.xlsx
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110">
@@ -2464,7 +2464,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="140">
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="146">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
